--- a/qbox/app/xlsx/GTF-GPS-COR-24036-01.xlsx
+++ b/qbox/app/xlsx/GTF-GPS-COR-24036-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dp/qbox/qbox/app/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0DDD17-D991-2346-85F6-31E24A6F6759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03563C9-BA9B-E146-8D6B-D8E3077BDE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SLDataSheet" sheetId="5" state="veryHidden" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="500">
   <si>
     <t>Barcode Label No.</t>
   </si>
@@ -1554,22 +1554,10 @@
     <t>Construction and Commissioning Records-Russia</t>
   </si>
   <si>
-    <t>Lori Weaver</t>
-  </si>
-  <si>
-    <t>Bridget Suchma</t>
-  </si>
-  <si>
-    <t>DA: 0008</t>
-  </si>
-  <si>
-    <t>Count: 3089</t>
-  </si>
-  <si>
-    <t>Iron Mountain</t>
-  </si>
-  <si>
-    <t>Jenny Guevara</t>
+    <t>DA: ####</t>
+  </si>
+  <si>
+    <t>Count: #</t>
   </si>
 </sst>
 </file>
@@ -2200,51 +2188,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2256,6 +2234,12 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2292,41 +2276,45 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2690,8 +2678,8 @@
   </sheetPr>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="185" zoomScaleNormal="100" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A31" sqref="A9:XFD31"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="185" zoomScaleNormal="100" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2715,176 +2703,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="39" t="s">
-        <v>500</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>501</v>
-      </c>
-      <c r="G1" s="76"/>
+        <v>498</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="G1" s="43"/>
       <c r="H1" s="22"/>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="49"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="74"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="29" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="30"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="76"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>503</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="30"/>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="M4" s="50" t="s">
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="M4" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52" t="s">
-        <v>498</v>
-      </c>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>499</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="30"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="M5" s="50" t="s">
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="M5" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="51"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="31"/>
       <c r="H6" s="27"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="42"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="67"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="71" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="72"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="17" t="s">
         <v>52</v>
       </c>
@@ -2900,17 +2880,17 @@
       <c r="O7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="44"/>
+      <c r="Q7" s="69"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="19" t="s">
         <v>68</v>
       </c>
@@ -2941,26 +2921,19 @@
       <c r="O8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="71"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="32">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:F5"/>
@@ -2972,13 +2945,20 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
@@ -6857,24 +6837,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DOC_x0020_CODE xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">GTF-GPS-COR-24036-01</DOC_x0020_CODE>
-    <PRODUCT_x0020_OR_x0020_SERVICE_x0020_LINE xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">12</PRODUCT_x0020_OR_x0020_SERVICE_x0020_LINE>
-    <DOC_x0020_TYPE_x0020__x0026__x0020_LEVEL xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">2</DOC_x0020_TYPE_x0020__x0026__x0020_LEVEL>
-    <REVISION_x0020_DATE xmlns="df345d5c-111e-4138-8e69-1e7d3dcd0ada">2022-02-27T23:00:00+00:00</REVISION_x0020_DATE>
-    <Document_x0020_Link xmlns="892abe79-fdb8-46c8-ad3c-ad7dc9adc088">http://wks-fr.exnet.technip.com/sites/GLOBALBPMS/STD/GTF-GPS-COR-24036-01.xlsx</Document_x0020_Link>
-    <REVISION_x0020_NUMBER xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">0</REVISION_x0020_NUMBER>
-    <GBU xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">26</GBU>
-    <FUNCTIONAL_x0020_CODE xmlns="892abe79-fdb8-46c8-ad3c-ad7dc9adc088">24-Information &amp; Digital Services</FUNCTIONAL_x0020_CODE>
-    <IQ xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">&lt;N/A&gt;</IQ>
-    <GLOBAL_x0020_BUSINESS xmlns="892abe79-fdb8-46c8-ad3c-ad7dc9adc088">COR</GLOBAL_x0020_BUSINESS>
-    <LOCAL_x0020_DOC_x0020_TYPE xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">Information and Cyber Security GPS &amp; GGL</LOCAL_x0020_DOC_x0020_TYPE>
-    <OC xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">22</OC>
-    <FUNCTION xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">10</FUNCTION>
-    <RBU_x002f_BU xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">21</RBU_x002f_BU>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7129,22 +7097,30 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DOC_x0020_CODE xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">GTF-GPS-COR-24036-01</DOC_x0020_CODE>
+    <PRODUCT_x0020_OR_x0020_SERVICE_x0020_LINE xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">12</PRODUCT_x0020_OR_x0020_SERVICE_x0020_LINE>
+    <DOC_x0020_TYPE_x0020__x0026__x0020_LEVEL xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">2</DOC_x0020_TYPE_x0020__x0026__x0020_LEVEL>
+    <REVISION_x0020_DATE xmlns="df345d5c-111e-4138-8e69-1e7d3dcd0ada">2022-02-27T23:00:00+00:00</REVISION_x0020_DATE>
+    <Document_x0020_Link xmlns="892abe79-fdb8-46c8-ad3c-ad7dc9adc088">http://wks-fr.exnet.technip.com/sites/GLOBALBPMS/STD/GTF-GPS-COR-24036-01.xlsx</Document_x0020_Link>
+    <REVISION_x0020_NUMBER xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">0</REVISION_x0020_NUMBER>
+    <GBU xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">26</GBU>
+    <FUNCTIONAL_x0020_CODE xmlns="892abe79-fdb8-46c8-ad3c-ad7dc9adc088">24-Information &amp; Digital Services</FUNCTIONAL_x0020_CODE>
+    <IQ xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">&lt;N/A&gt;</IQ>
+    <GLOBAL_x0020_BUSINESS xmlns="892abe79-fdb8-46c8-ad3c-ad7dc9adc088">COR</GLOBAL_x0020_BUSINESS>
+    <LOCAL_x0020_DOC_x0020_TYPE xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">Information and Cyber Security GPS &amp; GGL</LOCAL_x0020_DOC_x0020_TYPE>
+    <OC xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">22</OC>
+    <FUNCTION xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">10</FUNCTION>
+    <RBU_x002f_BU xmlns="7ab60ffd-ac5c-4177-a7dd-3e62a462227d">21</RBU_x002f_BU>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A6086A6-9DCA-4C44-AE43-C252A08859CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E073D17-496A-4828-B0C9-B603D304EFE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7ab60ffd-ac5c-4177-a7dd-3e62a462227d"/>
-    <ds:schemaRef ds:uri="df345d5c-111e-4138-8e69-1e7d3dcd0ada"/>
-    <ds:schemaRef ds:uri="892abe79-fdb8-46c8-ad3c-ad7dc9adc088"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7170,9 +7146,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E073D17-496A-4828-B0C9-B603D304EFE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A6086A6-9DCA-4C44-AE43-C252A08859CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7ab60ffd-ac5c-4177-a7dd-3e62a462227d"/>
+    <ds:schemaRef ds:uri="df345d5c-111e-4138-8e69-1e7d3dcd0ada"/>
+    <ds:schemaRef ds:uri="892abe79-fdb8-46c8-ad3c-ad7dc9adc088"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>